--- a/Code/Results/Cases/Case_3_242/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_242/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.661801097491605</v>
+        <v>0.8996705593262959</v>
       </c>
       <c r="C2">
-        <v>1.024455355867104</v>
+        <v>0.3119855432775864</v>
       </c>
       <c r="D2">
-        <v>0.009622311193025368</v>
+        <v>0.01953707594313769</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.630230204510823</v>
+        <v>1.138519202466995</v>
       </c>
       <c r="G2">
-        <v>0.0007652337484816906</v>
+        <v>0.002419667322141237</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7319895936933491</v>
+        <v>0.7009377672114283</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.829847044465737</v>
+        <v>0.8917317161918277</v>
       </c>
       <c r="N2">
-        <v>0.6475096875815822</v>
+        <v>1.217385632798226</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.297776527459234</v>
+        <v>0.8007676405273401</v>
       </c>
       <c r="C3">
-        <v>0.8826536169603401</v>
+        <v>0.2731540701712731</v>
       </c>
       <c r="D3">
-        <v>0.01061447050918396</v>
+        <v>0.01987040302279297</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.440967792147575</v>
+        <v>1.098065193150035</v>
       </c>
       <c r="G3">
-        <v>0.0007732908880489182</v>
+        <v>0.002424583076487369</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6652477341625485</v>
+        <v>0.6893255422141706</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.404610981701396</v>
+        <v>0.7935420772308106</v>
       </c>
       <c r="N3">
-        <v>0.6845671822449404</v>
+        <v>1.231687565517696</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.076817350867714</v>
+        <v>0.7403118830549147</v>
       </c>
       <c r="C4">
-        <v>0.7968203214211371</v>
+        <v>0.2493655483244481</v>
       </c>
       <c r="D4">
-        <v>0.01127485635035086</v>
+        <v>0.02008625283208776</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.328768657164346</v>
+        <v>1.074070357815913</v>
       </c>
       <c r="G4">
-        <v>0.0007783538940722706</v>
+        <v>0.002427758149386185</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6263632992480126</v>
+        <v>0.6826978181573011</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.153348372940812</v>
+        <v>0.7337966398820299</v>
       </c>
       <c r="N4">
-        <v>0.7090813668815414</v>
+        <v>1.241014371614128</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.98731282343789</v>
+        <v>0.7157430607971946</v>
       </c>
       <c r="C5">
-        <v>0.7621021345706538</v>
+        <v>0.2396844919099692</v>
       </c>
       <c r="D5">
-        <v>0.0115555925319395</v>
+        <v>0.02017700201126704</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.283938256661557</v>
+        <v>1.064502702875515</v>
       </c>
       <c r="G5">
-        <v>0.0007804482775633443</v>
+        <v>0.0024290915823013</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6109889934318886</v>
+        <v>0.6801223342089457</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.052995112232708</v>
+        <v>0.7095799642050196</v>
       </c>
       <c r="N5">
-        <v>0.7194835307723508</v>
+        <v>1.244951596403588</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.972480293615746</v>
+        <v>0.7116674749494507</v>
       </c>
       <c r="C6">
-        <v>0.7563514897727259</v>
+        <v>0.2380777235026414</v>
       </c>
       <c r="D6">
-        <v>0.01160287704861496</v>
+        <v>0.02019223857349939</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.276544866832893</v>
+        <v>1.062926658039871</v>
       </c>
       <c r="G6">
-        <v>0.0007807979860875559</v>
+        <v>0.002429315391664495</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6084630559364612</v>
+        <v>0.6797022221443427</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.036443176920997</v>
+        <v>0.7055664703327125</v>
       </c>
       <c r="N6">
-        <v>0.721234887183428</v>
+        <v>1.245613593191742</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.075608213658654</v>
+        <v>0.7399802674612488</v>
       </c>
       <c r="C7">
-        <v>0.7963511123995488</v>
+        <v>0.2492349346066476</v>
       </c>
       <c r="D7">
-        <v>0.01127859692943733</v>
+        <v>0.02008746544770279</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.328160594039744</v>
+        <v>1.073940475415839</v>
       </c>
       <c r="G7">
-        <v>0.0007783820109235886</v>
+        <v>0.002427775972095415</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6261541165516036</v>
+        <v>0.6826625778812527</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.151987247002637</v>
+        <v>0.7334695272451341</v>
       </c>
       <c r="N7">
-        <v>0.7092200218619311</v>
+        <v>1.241066918681376</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.535689987939691</v>
+        <v>0.865512083243857</v>
       </c>
       <c r="C8">
-        <v>0.975274130551071</v>
+        <v>0.2985847999018176</v>
       </c>
       <c r="D8">
-        <v>0.009952976978476968</v>
+        <v>0.01964967096979819</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.564066719705124</v>
+        <v>1.124394355147587</v>
       </c>
       <c r="G8">
-        <v>0.0007679890869688813</v>
+        <v>0.00242132981973495</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7085069005412592</v>
+        <v>0.6968290716890451</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.680900503450047</v>
+        <v>0.8577591287780422</v>
       </c>
       <c r="N8">
-        <v>0.6599023585541559</v>
+        <v>1.222203351669648</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.463400458369961</v>
+        <v>1.113878227712917</v>
       </c>
       <c r="C9">
-        <v>1.33849190570038</v>
+        <v>0.3958242031168879</v>
       </c>
       <c r="D9">
-        <v>0.007826037528236185</v>
+        <v>0.01888099228336237</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.06443918413899</v>
+        <v>1.230120630963995</v>
       </c>
       <c r="G9">
-        <v>0.0007484232233675228</v>
+        <v>0.002409926442563879</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8894718403327602</v>
+        <v>0.7286386323488969</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.820258843646599</v>
+        <v>1.106115018113812</v>
       </c>
       <c r="N9">
-        <v>0.578727334307203</v>
+        <v>1.18956852785719</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.16876243437946</v>
+        <v>1.297779451587814</v>
       </c>
       <c r="C10">
-        <v>1.616948776195784</v>
+        <v>0.4676044346832668</v>
       </c>
       <c r="D10">
-        <v>0.006663982273368063</v>
+        <v>0.01837250232828858</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.464712904527573</v>
+        <v>1.312067942763832</v>
       </c>
       <c r="G10">
-        <v>0.0007343718674899247</v>
+        <v>0.002402293714781178</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.038921168297421</v>
+        <v>0.7545301983375055</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.763174591667109</v>
+        <v>1.29185871500782</v>
       </c>
       <c r="N10">
-        <v>0.5311325017325927</v>
+        <v>1.168287727462427</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.496946880760333</v>
+        <v>1.381770766262377</v>
       </c>
       <c r="C11">
-        <v>1.747220001721303</v>
+        <v>0.5003450956899087</v>
       </c>
       <c r="D11">
-        <v>0.006255193292696859</v>
+        <v>0.0181537239879983</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.656528395268197</v>
+        <v>1.350304771084581</v>
       </c>
       <c r="G11">
-        <v>0.0007280010702943596</v>
+        <v>0.002398981285967997</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.111765103172885</v>
+        <v>0.7668707512059711</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.229042902167905</v>
+        <v>1.377172656245975</v>
       </c>
       <c r="N11">
-        <v>0.5128193188985293</v>
+        <v>1.159200764309837</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.622479280346624</v>
+        <v>1.413625331811716</v>
       </c>
       <c r="C12">
-        <v>1.797173940781363</v>
+        <v>0.5127565860568666</v>
       </c>
       <c r="D12">
-        <v>0.006121213257863189</v>
+        <v>0.01807270989334775</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.730833121669093</v>
+        <v>1.364924158837738</v>
       </c>
       <c r="G12">
-        <v>0.0007255864900129544</v>
+        <v>0.002397749776097015</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.140179924630758</v>
+        <v>0.7716257843512153</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.412421229793623</v>
+        <v>1.409604781555061</v>
       </c>
       <c r="N12">
-        <v>0.5064412392754107</v>
+        <v>1.155845922149076</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.595384201719867</v>
+        <v>1.406762692903101</v>
       </c>
       <c r="C13">
-        <v>1.786385896583795</v>
+        <v>0.510082945638203</v>
       </c>
       <c r="D13">
-        <v>0.006149075538726123</v>
+        <v>0.01809007574471444</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.714751196904558</v>
+        <v>1.361769355092036</v>
       </c>
       <c r="G13">
-        <v>0.0007261067017640954</v>
+        <v>0.002398013990303408</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.134020957367582</v>
+        <v>0.7705980416886149</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.372585234529723</v>
+        <v>1.402614228970506</v>
       </c>
       <c r="N13">
-        <v>0.5077887055073305</v>
+        <v>1.15656460091629</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.507248059243977</v>
+        <v>1.384390475780947</v>
       </c>
       <c r="C14">
-        <v>1.751316591943066</v>
+        <v>0.5013659254195204</v>
       </c>
       <c r="D14">
-        <v>0.006243729701274958</v>
+        <v>0.01814702201019536</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.662606318654497</v>
+        <v>1.351504700431008</v>
       </c>
       <c r="G14">
-        <v>0.0007278024972544594</v>
+        <v>0.002398879512192933</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.114085312779125</v>
+        <v>0.7672603024003593</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.243978497480825</v>
+        <v>1.37983830355131</v>
       </c>
       <c r="N14">
-        <v>0.5122829324382039</v>
+        <v>1.158923027298592</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.453432262868432</v>
+        <v>1.370693238920126</v>
       </c>
       <c r="C15">
-        <v>1.729920182135004</v>
+        <v>0.4960282545269479</v>
       </c>
       <c r="D15">
-        <v>0.006304540875982312</v>
+        <v>0.01818214278648078</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.630892246997291</v>
+        <v>1.345235588636058</v>
       </c>
       <c r="G15">
-        <v>0.0007288407742832985</v>
+        <v>0.002399412639056275</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.101986669971723</v>
+        <v>0.7652265428489784</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.166168608129169</v>
+        <v>1.365903985859546</v>
       </c>
       <c r="N15">
-        <v>0.51511084346145</v>
+        <v>1.160378880738804</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.147478804103912</v>
+        <v>1.292297212382721</v>
       </c>
       <c r="C16">
-        <v>1.608516325724963</v>
+        <v>0.4654665781481526</v>
       </c>
       <c r="D16">
-        <v>0.006693396506721072</v>
+        <v>0.01838705480252756</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.452394944183823</v>
+        <v>1.309588543043333</v>
       </c>
       <c r="G16">
-        <v>0.0007347882273556145</v>
+        <v>0.002402513392725681</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.034269084092529</v>
+        <v>0.753735121085839</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.733601586858271</v>
+        <v>1.286300385677478</v>
       </c>
       <c r="N16">
-        <v>0.5324026706532905</v>
+        <v>1.168893599059793</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.961796035458462</v>
+        <v>1.244289888152366</v>
       </c>
       <c r="C17">
-        <v>1.535031020708573</v>
+        <v>0.4467409020975879</v>
       </c>
       <c r="D17">
-        <v>0.006964936113579512</v>
+        <v>0.01851599352730382</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.345560492359041</v>
+        <v>1.287967227610167</v>
       </c>
       <c r="G17">
-        <v>0.0007384389221522445</v>
+        <v>0.002404456420921234</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9940567649005345</v>
+        <v>0.7468302927364476</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.478713568863981</v>
+        <v>1.237681291815719</v>
       </c>
       <c r="N17">
-        <v>0.5439152443808624</v>
+        <v>1.174269755249064</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.855670658565487</v>
+        <v>1.216708702094991</v>
       </c>
       <c r="C18">
-        <v>1.493095869011995</v>
+        <v>0.4359785773058888</v>
       </c>
       <c r="D18">
-        <v>0.007132140753606464</v>
+        <v>0.01859133382242995</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.285009123095136</v>
+        <v>1.275621318820114</v>
       </c>
       <c r="G18">
-        <v>0.0007405410700275681</v>
+        <v>0.002405589042667425</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9713758096922049</v>
+        <v>0.7429116843337482</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.335460989936038</v>
+        <v>1.20979340074534</v>
       </c>
       <c r="N18">
-        <v>0.5508457391593424</v>
+        <v>1.177417818271145</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.819848474506671</v>
+        <v>1.207375545387322</v>
       </c>
       <c r="C19">
-        <v>1.478951355351171</v>
+        <v>0.4323360233258313</v>
       </c>
       <c r="D19">
-        <v>0.007190550488678227</v>
+        <v>0.01861704420350385</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.264654133246822</v>
+        <v>1.271456617869802</v>
       </c>
       <c r="G19">
-        <v>0.0007412533660435278</v>
+        <v>0.002405975116813489</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9637697900436137</v>
+        <v>0.7415939583680426</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.287491726443108</v>
+        <v>1.200363945260932</v>
       </c>
       <c r="N19">
-        <v>0.5532432352943744</v>
+        <v>1.178493264487798</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.981491086894152</v>
+        <v>1.249397098080067</v>
       </c>
       <c r="C20">
-        <v>1.542818619983905</v>
+        <v>0.4487334294922789</v>
       </c>
       <c r="D20">
-        <v>0.006934866191153688</v>
+        <v>0.01850214563232377</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.356838579595291</v>
+        <v>1.290259513519246</v>
       </c>
       <c r="G20">
-        <v>0.0007380500883364249</v>
+        <v>0.002404248026384694</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9982901860821727</v>
+        <v>0.7475598443569424</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.505489573768088</v>
+        <v>1.242848900461084</v>
       </c>
       <c r="N20">
-        <v>0.5426572507097376</v>
+        <v>1.173691669187093</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.533099918368009</v>
+        <v>1.390960404527959</v>
       </c>
       <c r="C21">
-        <v>1.761599463981383</v>
+        <v>0.503925958350294</v>
       </c>
       <c r="D21">
-        <v>0.006215329432263772</v>
+        <v>0.01813024553721121</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.677874840343122</v>
+        <v>1.354515863859177</v>
       </c>
       <c r="G21">
-        <v>0.0007273045051084031</v>
+        <v>0.002398624668777853</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.119917171730336</v>
+        <v>0.7682384450924928</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.281548432130307</v>
+        <v>1.386524672260833</v>
       </c>
       <c r="N21">
-        <v>0.5109470632658883</v>
+        <v>1.15822795451551</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.901046059994542</v>
+        <v>1.483765535581313</v>
       </c>
       <c r="C22">
-        <v>1.908278766563456</v>
+        <v>0.5400754120850593</v>
       </c>
       <c r="D22">
-        <v>0.005868791832771336</v>
+        <v>0.01789788294541061</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.897582338690796</v>
+        <v>1.397327716938548</v>
       </c>
       <c r="G22">
-        <v>0.0007202660438746553</v>
+        <v>0.00239508251661216</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.204330402050303</v>
+        <v>0.7822311844505379</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.830567194098279</v>
+        <v>1.481160950796408</v>
       </c>
       <c r="N22">
-        <v>0.4935167337961985</v>
+        <v>1.148624310414966</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.703910387643418</v>
+        <v>1.434207282762998</v>
       </c>
       <c r="C23">
-        <v>1.829615926151348</v>
+        <v>0.52077439053744</v>
       </c>
       <c r="D23">
-        <v>0.006040991553406982</v>
+        <v>0.0180209105546858</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.779311300985597</v>
+        <v>1.374402807473587</v>
       </c>
       <c r="G23">
-        <v>0.0007240260782283015</v>
+        <v>0.002396960901414042</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.158775875541053</v>
+        <v>0.7747188949336561</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.533012230112433</v>
+        <v>1.430581779746035</v>
       </c>
       <c r="N23">
-        <v>0.5024881117935607</v>
+        <v>1.15370368005766</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.972585019013991</v>
+        <v>1.247088069780318</v>
       </c>
       <c r="C24">
-        <v>1.539296880637721</v>
+        <v>0.4478325975855455</v>
       </c>
       <c r="D24">
-        <v>0.006948426509820749</v>
+        <v>0.01850840249324648</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.351737068664008</v>
+        <v>1.289222908101252</v>
       </c>
       <c r="G24">
-        <v>0.0007382258695056013</v>
+        <v>0.002404342193077195</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9963749027798343</v>
+        <v>0.7472298550801924</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.493374023590732</v>
+        <v>1.240512426237657</v>
       </c>
       <c r="N24">
-        <v>0.5432250241365892</v>
+        <v>1.173952843669362</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.208909083644357</v>
+        <v>1.046444400436656</v>
       </c>
       <c r="C25">
-        <v>1.238520514253764</v>
+        <v>0.3694629699626262</v>
       </c>
       <c r="D25">
-        <v>0.008340509470535551</v>
+        <v>0.01907917083223865</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.92412316068021</v>
+        <v>1.200778688486352</v>
       </c>
       <c r="G25">
-        <v>0.0007536452534183755</v>
+        <v>0.002412879814971416</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8379961714014783</v>
+        <v>0.7195953076212263</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.497234888698188</v>
+        <v>1.038386493199681</v>
       </c>
       <c r="N25">
-        <v>0.5987839310238385</v>
+        <v>1.197926610869288</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_242/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_242/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8996705593262959</v>
+        <v>2.661801097491718</v>
       </c>
       <c r="C2">
-        <v>0.3119855432775864</v>
+        <v>1.024455355867303</v>
       </c>
       <c r="D2">
-        <v>0.01953707594313769</v>
+        <v>0.009622311192709176</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.138519202466995</v>
+        <v>1.630230204510852</v>
       </c>
       <c r="G2">
-        <v>0.002419667322141237</v>
+        <v>0.0007652337484530253</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7009377672114283</v>
+        <v>0.731989593693342</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8917317161918277</v>
+        <v>2.829847044465723</v>
       </c>
       <c r="N2">
-        <v>1.217385632798226</v>
+        <v>0.6475096875816462</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8007676405273401</v>
+        <v>2.297776527459177</v>
       </c>
       <c r="C3">
-        <v>0.2731540701712731</v>
+        <v>0.8826536169602264</v>
       </c>
       <c r="D3">
-        <v>0.01987040302279297</v>
+        <v>0.01061447050908715</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.098065193150035</v>
+        <v>1.440967792147575</v>
       </c>
       <c r="G3">
-        <v>0.002424583076487369</v>
+        <v>0.0007732908880326013</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6893255422141706</v>
+        <v>0.6652477341625556</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7935420772308106</v>
+        <v>2.404610981701424</v>
       </c>
       <c r="N3">
-        <v>1.231687565517696</v>
+        <v>0.6845671822449262</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7403118830549147</v>
+        <v>2.076817350867771</v>
       </c>
       <c r="C4">
-        <v>0.2493655483244481</v>
+        <v>0.7968203214211371</v>
       </c>
       <c r="D4">
-        <v>0.02008625283208776</v>
+        <v>0.01127485635042547</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.074070357815913</v>
+        <v>1.32876865716436</v>
       </c>
       <c r="G4">
-        <v>0.002427758149386185</v>
+        <v>0.0007783538940995095</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6826978181573011</v>
+        <v>0.6263632992480339</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7337966398820299</v>
+        <v>2.153348372940783</v>
       </c>
       <c r="N4">
-        <v>1.241014371614128</v>
+        <v>0.7090813668814846</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7157430607971946</v>
+        <v>1.987312823437748</v>
       </c>
       <c r="C5">
-        <v>0.2396844919099692</v>
+        <v>0.7621021345704833</v>
       </c>
       <c r="D5">
-        <v>0.02017700201126704</v>
+        <v>0.01155559253166238</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.064502702875515</v>
+        <v>1.283938256661543</v>
       </c>
       <c r="G5">
-        <v>0.0024290915823013</v>
+        <v>0.0007804482775922589</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6801223342089457</v>
+        <v>0.6109889934318957</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7095799642050196</v>
+        <v>2.052995112232708</v>
       </c>
       <c r="N5">
-        <v>1.244951596403588</v>
+        <v>0.7194835307723508</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7116674749494507</v>
+        <v>1.97248029361586</v>
       </c>
       <c r="C6">
-        <v>0.2380777235026414</v>
+        <v>0.7563514897728396</v>
       </c>
       <c r="D6">
-        <v>0.02019223857349939</v>
+        <v>0.01160287704853769</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.062926658039871</v>
+        <v>1.276544866832893</v>
       </c>
       <c r="G6">
-        <v>0.002429315391664495</v>
+        <v>0.0007807979860869329</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6797022221443427</v>
+        <v>0.6084630559364967</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7055664703327125</v>
+        <v>2.036443176920983</v>
       </c>
       <c r="N6">
-        <v>1.245613593191742</v>
+        <v>0.7212348871834422</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7399802674612488</v>
+        <v>2.075608213658711</v>
       </c>
       <c r="C7">
-        <v>0.2492349346066476</v>
+        <v>0.7963511123995204</v>
       </c>
       <c r="D7">
-        <v>0.02008746544770279</v>
+        <v>0.01127859692944266</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.073940475415839</v>
+        <v>1.328160594039744</v>
       </c>
       <c r="G7">
-        <v>0.002427775972095415</v>
+        <v>0.0007783820109242262</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6826625778812527</v>
+        <v>0.6261541165515894</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7334695272451341</v>
+        <v>2.151987247002637</v>
       </c>
       <c r="N7">
-        <v>1.241066918681376</v>
+        <v>0.7092200218619311</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.865512083243857</v>
+        <v>2.535689987939691</v>
       </c>
       <c r="C8">
-        <v>0.2985847999018176</v>
+        <v>0.9752741305509574</v>
       </c>
       <c r="D8">
-        <v>0.01964967096979819</v>
+        <v>0.009952976978159001</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.124394355147587</v>
+        <v>1.564066719705124</v>
       </c>
       <c r="G8">
-        <v>0.00242132981973495</v>
+        <v>0.00076798908691178</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6968290716890451</v>
+        <v>0.7085069005412663</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8577591287780422</v>
+        <v>2.680900503450061</v>
       </c>
       <c r="N8">
-        <v>1.222203351669648</v>
+        <v>0.6599023585541346</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.113878227712917</v>
+        <v>3.463400458369733</v>
       </c>
       <c r="C9">
-        <v>0.3958242031168879</v>
+        <v>1.338491905700209</v>
       </c>
       <c r="D9">
-        <v>0.01888099228336237</v>
+        <v>0.007826037528239738</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.230120630963995</v>
+        <v>2.064439184139005</v>
       </c>
       <c r="G9">
-        <v>0.002409926442563879</v>
+        <v>0.0007484232233683219</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7286386323488969</v>
+        <v>0.8894718403327602</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.106115018113812</v>
+        <v>3.820258843646585</v>
       </c>
       <c r="N9">
-        <v>1.18956852785719</v>
+        <v>0.5787273343072812</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.297779451587814</v>
+        <v>4.168762434379403</v>
       </c>
       <c r="C10">
-        <v>0.4676044346832668</v>
+        <v>1.61694877619567</v>
       </c>
       <c r="D10">
-        <v>0.01837250232828858</v>
+        <v>0.006663982273368063</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.312067942763832</v>
+        <v>2.464712904527545</v>
       </c>
       <c r="G10">
-        <v>0.002402293714781178</v>
+        <v>0.0007343718674897874</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7545301983375055</v>
+        <v>1.038921168297421</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.29185871500782</v>
+        <v>4.763174591667095</v>
       </c>
       <c r="N10">
-        <v>1.168287727462427</v>
+        <v>0.5311325017325927</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.381770766262377</v>
+        <v>4.496946880760447</v>
       </c>
       <c r="C11">
-        <v>0.5003450956899087</v>
+        <v>1.747220001721303</v>
       </c>
       <c r="D11">
-        <v>0.0181537239879983</v>
+        <v>0.006255193292794559</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.350304771084581</v>
+        <v>2.656528395268197</v>
       </c>
       <c r="G11">
-        <v>0.002398981285967997</v>
+        <v>0.0007280010702915373</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7668707512059711</v>
+        <v>1.111765103172914</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.377172656245975</v>
+        <v>5.229042902167876</v>
       </c>
       <c r="N11">
-        <v>1.159200764309837</v>
+        <v>0.5128193188985293</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.413625331811716</v>
+        <v>4.622479280346624</v>
       </c>
       <c r="C12">
-        <v>0.5127565860568666</v>
+        <v>1.79717394078159</v>
       </c>
       <c r="D12">
-        <v>0.01807270989334775</v>
+        <v>0.006121213257751279</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.364924158837738</v>
+        <v>2.730833121669093</v>
       </c>
       <c r="G12">
-        <v>0.002397749776097015</v>
+        <v>0.0007255864899555196</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7716257843512153</v>
+        <v>1.140179924630743</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.409604781555061</v>
+        <v>5.412421229793608</v>
       </c>
       <c r="N12">
-        <v>1.155845922149076</v>
+        <v>0.5064412392754107</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.406762692903101</v>
+        <v>4.595384201720151</v>
       </c>
       <c r="C13">
-        <v>0.510082945638203</v>
+        <v>1.786385896583909</v>
       </c>
       <c r="D13">
-        <v>0.01809007574471444</v>
+        <v>0.006149075538825599</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.361769355092036</v>
+        <v>2.714751196904558</v>
       </c>
       <c r="G13">
-        <v>0.002398013990303408</v>
+        <v>0.0007261067018179159</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7705980416886149</v>
+        <v>1.134020957367596</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.402614228970506</v>
+        <v>5.372585234529694</v>
       </c>
       <c r="N13">
-        <v>1.15656460091629</v>
+        <v>0.5077887055073234</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.384390475780947</v>
+        <v>4.507248059243921</v>
       </c>
       <c r="C14">
-        <v>0.5013659254195204</v>
+        <v>1.751316591942839</v>
       </c>
       <c r="D14">
-        <v>0.01814702201019536</v>
+        <v>0.006243729701273182</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.351504700431008</v>
+        <v>2.66260631865444</v>
       </c>
       <c r="G14">
-        <v>0.002398879512192933</v>
+        <v>0.0007278024973120536</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7672603024003593</v>
+        <v>1.11408531277911</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.37983830355131</v>
+        <v>5.243978497480825</v>
       </c>
       <c r="N14">
-        <v>1.158923027298592</v>
+        <v>0.5122829324382039</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.370693238920126</v>
+        <v>4.453432262868319</v>
       </c>
       <c r="C15">
-        <v>0.4960282545269479</v>
+        <v>1.72992018213489</v>
       </c>
       <c r="D15">
-        <v>0.01818214278648078</v>
+        <v>0.006304540875635922</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.345235588636058</v>
+        <v>2.630892246997291</v>
       </c>
       <c r="G15">
-        <v>0.002399412639056275</v>
+        <v>0.0007288407742812844</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7652265428489784</v>
+        <v>1.101986669971751</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.365903985859546</v>
+        <v>5.166168608129198</v>
       </c>
       <c r="N15">
-        <v>1.160378880738804</v>
+        <v>0.5151108434614429</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.292297212382721</v>
+        <v>4.147478804104082</v>
       </c>
       <c r="C16">
-        <v>0.4654665781481526</v>
+        <v>1.608516325725077</v>
       </c>
       <c r="D16">
-        <v>0.01838705480252756</v>
+        <v>0.006693396506818772</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.309588543043333</v>
+        <v>2.452394944183851</v>
       </c>
       <c r="G16">
-        <v>0.002402513392725681</v>
+        <v>0.0007347882273533773</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.753735121085839</v>
+        <v>1.034269084092557</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.286300385677478</v>
+        <v>4.733601586858242</v>
       </c>
       <c r="N16">
-        <v>1.168893599059793</v>
+        <v>0.5324026706532763</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.244289888152366</v>
+        <v>3.961796035458576</v>
       </c>
       <c r="C17">
-        <v>0.4467409020975879</v>
+        <v>1.535031020708573</v>
       </c>
       <c r="D17">
-        <v>0.01851599352730382</v>
+        <v>0.00696493611345872</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.287967227610167</v>
+        <v>2.345560492359056</v>
       </c>
       <c r="G17">
-        <v>0.002404456420921234</v>
+        <v>0.0007384389223157216</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7468302927364476</v>
+        <v>0.9940567649005487</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.237681291815719</v>
+        <v>4.478713568864009</v>
       </c>
       <c r="N17">
-        <v>1.174269755249064</v>
+        <v>0.5439152443808339</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.216708702094991</v>
+        <v>3.85567065856543</v>
       </c>
       <c r="C18">
-        <v>0.4359785773058888</v>
+        <v>1.493095869011654</v>
       </c>
       <c r="D18">
-        <v>0.01859133382242995</v>
+        <v>0.007132140753611793</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.275621318820114</v>
+        <v>2.285009123095122</v>
       </c>
       <c r="G18">
-        <v>0.002405589042667425</v>
+        <v>0.0007405410701924362</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7429116843337482</v>
+        <v>0.9713758096921907</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.20979340074534</v>
+        <v>4.335460989936081</v>
       </c>
       <c r="N18">
-        <v>1.177417818271145</v>
+        <v>0.5508457391593922</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.207375545387322</v>
+        <v>3.819848474506784</v>
       </c>
       <c r="C19">
-        <v>0.4323360233258313</v>
+        <v>1.478951355351114</v>
       </c>
       <c r="D19">
-        <v>0.01861704420350385</v>
+        <v>0.007190550488569869</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.271456617869802</v>
+        <v>2.264654133246822</v>
       </c>
       <c r="G19">
-        <v>0.002405975116813489</v>
+        <v>0.0007412533659884104</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7415939583680426</v>
+        <v>0.9637697900436137</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.200363945260932</v>
+        <v>4.287491726443122</v>
       </c>
       <c r="N19">
-        <v>1.178493264487798</v>
+        <v>0.5532432352943388</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.249397098080067</v>
+        <v>3.981491086894209</v>
       </c>
       <c r="C20">
-        <v>0.4487334294922789</v>
+        <v>1.54281861998362</v>
       </c>
       <c r="D20">
-        <v>0.01850214563232377</v>
+        <v>0.006934866191356193</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.290259513519246</v>
+        <v>2.356838579595291</v>
       </c>
       <c r="G20">
-        <v>0.002404248026384694</v>
+        <v>0.0007380500884972552</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7475598443569424</v>
+        <v>0.9982901860821443</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.242848900461084</v>
+        <v>4.505489573768116</v>
       </c>
       <c r="N20">
-        <v>1.173691669187093</v>
+        <v>0.5426572507097305</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.390960404527959</v>
+        <v>4.533099918368066</v>
       </c>
       <c r="C21">
-        <v>0.503925958350294</v>
+        <v>1.761599463981099</v>
       </c>
       <c r="D21">
-        <v>0.01813024553721121</v>
+        <v>0.006215329432361472</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.354515863859177</v>
+        <v>2.677874840343151</v>
       </c>
       <c r="G21">
-        <v>0.002398624668777853</v>
+        <v>0.0007273045051079155</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7682384450924928</v>
+        <v>1.119917171730336</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.386524672260833</v>
+        <v>5.281548432130379</v>
       </c>
       <c r="N21">
-        <v>1.15822795451551</v>
+        <v>0.510947063265867</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.483765535581313</v>
+        <v>4.901046059994655</v>
       </c>
       <c r="C22">
-        <v>0.5400754120850593</v>
+        <v>1.908278766563342</v>
       </c>
       <c r="D22">
-        <v>0.01789788294541061</v>
+        <v>0.005868791832796205</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.397327716938548</v>
+        <v>2.897582338690796</v>
       </c>
       <c r="G22">
-        <v>0.00239508251661216</v>
+        <v>0.0007202660438270286</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7822311844505379</v>
+        <v>1.204330402050289</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.481160950796408</v>
+        <v>5.830567194098236</v>
       </c>
       <c r="N22">
-        <v>1.148624310414966</v>
+        <v>0.493516733796227</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.434207282762998</v>
+        <v>4.703910387643532</v>
       </c>
       <c r="C23">
-        <v>0.52077439053744</v>
+        <v>1.829615926151234</v>
       </c>
       <c r="D23">
-        <v>0.0180209105546858</v>
+        <v>0.006040991553389219</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.374402807473587</v>
+        <v>2.779311300985626</v>
       </c>
       <c r="G23">
-        <v>0.002396960901414042</v>
+        <v>0.0007240260782259801</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7747188949336561</v>
+        <v>1.158775875541053</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.430581779746035</v>
+        <v>5.533012230112519</v>
       </c>
       <c r="N23">
-        <v>1.15370368005766</v>
+        <v>0.5024881117935749</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.247088069780318</v>
+        <v>3.972585019013934</v>
       </c>
       <c r="C24">
-        <v>0.4478325975855455</v>
+        <v>1.539296880637266</v>
       </c>
       <c r="D24">
-        <v>0.01850840249324648</v>
+        <v>0.006948426509923777</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.289222908101252</v>
+        <v>2.351737068664022</v>
       </c>
       <c r="G24">
-        <v>0.002404342193077195</v>
+        <v>0.0007382258695039434</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7472298550801924</v>
+        <v>0.9963749027798343</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.240512426237657</v>
+        <v>4.493374023590732</v>
       </c>
       <c r="N24">
-        <v>1.173952843669362</v>
+        <v>0.5432250241366319</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.046444400436656</v>
+        <v>3.208909083644585</v>
       </c>
       <c r="C25">
-        <v>0.3694629699626262</v>
+        <v>1.238520514253764</v>
       </c>
       <c r="D25">
-        <v>0.01907917083223865</v>
+        <v>0.008340509470629698</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.200778688486352</v>
+        <v>1.924123160680224</v>
       </c>
       <c r="G25">
-        <v>0.002412879814971416</v>
+        <v>0.0007536452534725457</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7195953076212263</v>
+        <v>0.8379961714014854</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.038386493199681</v>
+        <v>3.497234888698188</v>
       </c>
       <c r="N25">
-        <v>1.197926610869288</v>
+        <v>0.5987839310237604</v>
       </c>
       <c r="O25">
         <v>0</v>
